--- a/Outlook/test_data.xlsx
+++ b/Outlook/test_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JahidulIslam\PycharmProjects\AutoEmailReminder\Outlook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RohitBhumar\PycharmProjects\MiscProjects\Outlook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED523A2-2E8C-411A-A77C-C1B7A108352B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD99642-2B51-43BC-86E1-722756D29517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,10 +38,10 @@
     <t>Email ID</t>
   </si>
   <si>
-    <t>abc@gmail.com</t>
+    <t>def@platotech.com</t>
   </si>
   <si>
-    <t>def@platotech.com</t>
+    <t>a@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -407,34 +407,34 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.90625" customWidth="1"/>
-    <col min="2" max="2" width="9.36328125" customWidth="1"/>
-    <col min="3" max="3" width="9.26953125" customWidth="1"/>
-    <col min="4" max="4" width="4.7265625" customWidth="1"/>
-    <col min="7" max="7" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.88671875" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" customWidth="1"/>
+    <col min="4" max="4" width="4.77734375" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
